--- a/medicine/Enfance/Olivier_Supiot/Olivier_Supiot.xlsx
+++ b/medicine/Enfance/Olivier_Supiot/Olivier_Supiot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Supiot, né le 7 mai 1971 à Angers, est un dessinateur et scénariste de bande dessinée français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Natif d'Angers[1], Olivier Supiot a fait des études d'Arts graphiques à Tours. En 2003, il obtient le Prix du meilleur dessin au Festival d'Angoulême pour l'album Le Dérisoire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natif d'Angers, Olivier Supiot a fait des études d'Arts graphiques à Tours. En 2003, il obtient le Prix du meilleur dessin au Festival d'Angoulême pour l'album Le Dérisoire.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Aventures oubliées du baron de Münchhausen, scénario et dessins d'Olivier Supiot, Vents d'Ouest, collection Équinoxe
 Les Orientales, 2006  (ISBN 2-7493-0261-7)
@@ -550,27 +566,27 @@
 Chinoiseries, 2008  (ISBN 978-2-7493-0451-9)
 Erzurum, scénario d'Olivier Supiot, dessins d'Olivier Martin, Le Cycliste, collection Comix, 1999  (ISBN 2-912249-10-4)
 Le Narval, scénario d'Olivier Supiot, dessins de Boris Beuzelin, Glénat, collection Treize étrange,
-L'Homme de fond, 2010  (ISBN 978-2-7234-7170-1)[2]
-Terrain vague, 2010  (ISBN 978-2-7234-7410-8)[3]
+L'Homme de fond, 2010  (ISBN 978-2-7234-7170-1)
+Terrain vague, 2010  (ISBN 978-2-7234-7410-8)
 Tatoo, scénario et dessins d'Olivier Supiot, Milan Jeunesse, collection Petit Bonum
 Au zoo, 2008  (ISBN 978-2-7459-3417-8)
 À la ferme, 2009  (ISBN 978-2-7459-3882-4)
 Un amour de marmelade, scénario et dessins d'Olivier Supiot, Glénat, collection 1000 Feuilles, 2011  (ISBN 978-2-7234-7373-6)
 La Bande à Tchô !, T.04, scénario collectif, Glénat, 2001
 Carrément Bruxelles - Ronduit Brussel, scénario de Paul Herman, dessins de Michel Pierret, Jean-François Charles, Barly Baruti, Vincent Dutreuil, Jean-Luc Cornette, Jeanlouis Boccar, Étienne Schréder, Olivier Supiot, Éric Gorski, Stéphane Gemine, Isaac Wens, Laurent Siefer, Jean-Marc Dubois, Éric Warnauts, Godi, Hermann, Frédéric Pontarolo, Ersel, Griffo, Benoît Roels, Daniel Hulet, Jean-Yves Delitte, Séraphine, Marc-Renier, Séra, Jacques Denoël et Franckie Alarçon, Glénat, coll. « Carrément 20/20 », 2005  (ISBN 2-87176-218-X)
-Le Dérisoire, scénario d'Éric Omond, dessins d'Olivier Supiot, Glénat, coll. « Carrément BD », 2002  (ISBN 2-7234-3567-9)[4],[5],[6].
+Le Dérisoire, scénario d'Éric Omond, dessins d'Olivier Supiot, Glénat, coll. « Carrément BD », 2002  (ISBN 2-7234-3567-9).
 Féroce, scénario d'Éric Omond, dessins d'Olivier Supiot, Glénat, collection Carrément BD, 2005  (ISBN 2-7234-4356-6)
 Marie Frisson, scénario d'Éric Baptizat (tomes 1 à 6) puis Téhem, dessins d'Olivier Supiot, Glénat, collection Tchô! La collec… (à partir du tome 2)
 Il est revenu le temps du muguet, 1999  (ISBN 2-7234-2903-2)
-Tombe la neige…, 2000  (ISBN 2-7234-3143-6)[7]
+Tombe la neige…, 2000  (ISBN 2-7234-3143-6)
 Retiens la nuit…, 2001  (ISBN 2-7234-3489-3)
 Comme un ouragan, 2002  (ISBN 2-7234-4005-2)
 En rouge et noir,  (ISBN 2-7234-4198-9)
-Je te survivrai [8], 2004  (ISBN 2-7234-4538-0)
+Je te survivrai , 2004  (ISBN 2-7234-4538-0)
 Nuit magique, 2005  (ISBN 2-7234-5115-1)
 Les Petites Histoires de Mazé, scénario de Téhem, dessins de Lucie Durbiano, Téhem, Olivier Supiot, Gildo, Fañch, Dam, Johann Benoît, Ville de Mazé, 2012  (ISBN 978-2-9542049-0-1)
 Même pas peur !, scénario collectif, dessins d'Olivier Supiot, École Auguste Renoir, 2008
-Le Vaillant soldat de plomb[9], scénario d'Hélène Beney, Bamboo Édition (2013)
+Le Vaillant soldat de plomb, scénario d'Hélène Beney, Bamboo Édition (2013)
 La Patrouille des invisibles, scénario et dessins d'Olivier Supiot, Glénat colection 1000 feuilles, 2014
 Pieter et le lokken,  scénario Olivier Ka, dessin &amp; couleur Olivier Supiot, Éditions Delcourt, 2015
 Le Cheval qui ne voulait plus être une œuvre d'art, Delcourt-Musée du Louvre, 2016</t>
@@ -601,7 +617,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1997 : Alph-Art graine de pro au festival d'Angoulême
 2002 : prix Nouvelle République du festival Bd Boum pour Le Dérisoire au édition Glénat
